--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2493151.357735981</v>
+        <v>2490607.583069324</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9236871.340643818</v>
+        <v>9236871.340643816</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.5639921989984</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.5639921989984</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212.4355068307154</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645086</v>
+        <v>25.39082138353084</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.5639921989984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>85.93383498573969</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072384</v>
+        <v>18.20026557072399</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>154.6243509196221</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8843116769506</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704493</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>226.1999249854495</v>
       </c>
       <c r="W4" t="n">
-        <v>248.2375244625819</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>97.26234557100793</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>125.2783963262413</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>50.06632887147386</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>34.52670189341621</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>162.7079352124034</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>21.78155647019803</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>147.7535721662179</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>29.04795685916117</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542853</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,10 +1427,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>102.1557845699764</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>160.6789846282061</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890347</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.90570098813</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784685</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>80.67842139643643</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.8605623338611</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2324,10 +2324,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>198.9107847550991</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.3963959210079</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.405450327292</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>125.8152577453148</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>112.6849016609935</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521.8034593030675</v>
+        <v>319.9041691983847</v>
       </c>
       <c r="C2" t="n">
-        <v>255.5772045566044</v>
+        <v>319.9041691983847</v>
       </c>
       <c r="D2" t="n">
-        <v>40.99588452557876</v>
+        <v>319.9041691983847</v>
       </c>
       <c r="E2" t="n">
-        <v>40.99588452557876</v>
+        <v>319.9041691983847</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637529</v>
+        <v>312.9586684491812</v>
       </c>
       <c r="G2" t="n">
-        <v>21.08511937591988</v>
+        <v>287.3113741223824</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701178</v>
+        <v>49.14994660701134</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164432</v>
+        <v>141.9503658164422</v>
       </c>
       <c r="L2" t="n">
-        <v>295.019574396579</v>
+        <v>293.9792536780743</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173892</v>
+        <v>495.8504424173898</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238173</v>
+        <v>704.5447722238171</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381137</v>
+        <v>888.2736487381128</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266322</v>
+        <v>1010.580993266321</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795994</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795994</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.255968795994</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.255968795994</v>
+        <v>839.8155581338793</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.255968795994</v>
+        <v>586.1304239448473</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.255968795994</v>
+        <v>319.9041691983847</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.255968795994</v>
+        <v>319.9041691983847</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.255968795994</v>
+        <v>319.9041691983847</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.0297140495306</v>
+        <v>319.9041691983847</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7100133237536</v>
+        <v>254.4215308699841</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2569840426266</v>
+        <v>254.4215308699841</v>
       </c>
       <c r="D3" t="n">
-        <v>180.3225743813754</v>
+        <v>254.4215308699841</v>
       </c>
       <c r="E3" t="n">
-        <v>21.08511937591988</v>
+        <v>254.4215308699841</v>
       </c>
       <c r="F3" t="n">
-        <v>21.08511937591988</v>
+        <v>107.886972896869</v>
       </c>
       <c r="G3" t="n">
-        <v>21.08511937591988</v>
+        <v>107.886972896869</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K3" t="n">
-        <v>192.509829137833</v>
+        <v>95.64621773957448</v>
       </c>
       <c r="L3" t="n">
-        <v>339.0889684539657</v>
+        <v>339.088968453966</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4967785168089</v>
+        <v>529.4967785168087</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516413</v>
+        <v>739.3527616516405</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271669</v>
+        <v>909.1101923271656</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280453</v>
+        <v>1026.022430280451</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795994</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158899</v>
+        <v>1035.871862158897</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158899</v>
+        <v>887.2211371066293</v>
       </c>
       <c r="T3" t="n">
-        <v>879.6856491087756</v>
+        <v>690.4089281366589</v>
       </c>
       <c r="U3" t="n">
-        <v>879.6856491087756</v>
+        <v>462.2730310755169</v>
       </c>
       <c r="V3" t="n">
-        <v>879.6856491087756</v>
+        <v>462.2730310755169</v>
       </c>
       <c r="W3" t="n">
-        <v>879.6856491087756</v>
+        <v>462.2730310755169</v>
       </c>
       <c r="X3" t="n">
-        <v>879.6856491087756</v>
+        <v>254.4215308699841</v>
       </c>
       <c r="Y3" t="n">
-        <v>671.9253503438217</v>
+        <v>254.4215308699841</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>803.5109945913656</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="C4" t="n">
-        <v>634.5748116634587</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="D4" t="n">
-        <v>484.458172251123</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5450786687298</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="F4" t="n">
-        <v>189.6551311708195</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953614</v>
+        <v>126.3272391953612</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735308</v>
+        <v>316.5273535735303</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559559</v>
+        <v>527.455829255955</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568303</v>
+        <v>738.803513656829</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005259</v>
+        <v>918.0010123005243</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485828</v>
+        <v>1047.814747485827</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795994</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795994</v>
+        <v>925.4341625632147</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.255968795994</v>
+        <v>925.4341625632147</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.255968795994</v>
+        <v>925.4341625632147</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.255968795994</v>
+        <v>659.2079078167521</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.255968795994</v>
+        <v>430.7231351041769</v>
       </c>
       <c r="W4" t="n">
-        <v>803.5109945913656</v>
+        <v>430.7231351041769</v>
       </c>
       <c r="X4" t="n">
-        <v>803.5109945913656</v>
+        <v>202.7335842061595</v>
       </c>
       <c r="Y4" t="n">
-        <v>803.5109945913656</v>
+        <v>202.7335842061595</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C5" t="n">
-        <v>833.1938928750989</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>690.233069932778</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>690.233069932778</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>690.233069932778</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471.0283840154698</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>296.5753547343428</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>147.6409450730915</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4647,22 +4647,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="X6" t="n">
-        <v>847.0040198004917</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="Y6" t="n">
-        <v>639.2437210355379</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.0630263227563</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1268433948493</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="E7" t="n">
         <v>21.09711040012049</v>
@@ -4729,13 +4729,13 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
         <v>918.4699372075542</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W7" t="n">
-        <v>890.5040702965262</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X7" t="n">
-        <v>890.5040702965262</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="Y7" t="n">
-        <v>669.711491152996</v>
+        <v>224.9087497860236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>934.6665353554979</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="C8" t="n">
-        <v>565.7040184150862</v>
+        <v>495.898609785037</v>
       </c>
       <c r="D8" t="n">
-        <v>207.4383198083357</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>207.4383198083357</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>200.4928190591323</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.405707395431</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>1321.26637541962</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507739</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.154053606939</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1607.104749509688</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1410.476001669549</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1187.497520864284</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400662</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121593</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121593</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297662</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297662</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.20477958315</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377263</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340303</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703059</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,49 +5264,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367892</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>484.2179484367892</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.2179484367892</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.0218491516692</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.3100179938673</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>94.65038286230612</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5972,7 +5972,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138372</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138372</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925216</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F40" t="n">
-        <v>444.7013164925216</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7394,7 +7394,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7576,43 +7576,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,19 +7728,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7982,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.050829008588806</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.050829008591961</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518618</v>
+        <v>60.60994937518646</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362154</v>
+        <v>2.123866789362381</v>
       </c>
       <c r="K3" t="n">
-        <v>97.84203171541219</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.8420317154135</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127221</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>186.4490126143846</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>54.95314511566579</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372229247</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>125.505489761038</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5874149221290992</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>139.469330230033</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>18.49466557218921</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.4355842609294</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>45.71423459433174</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>39.70888054695402</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.8997516911013</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>811286.9139583396</v>
+        <v>811286.9139583397</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>814965.3661991092</v>
+        <v>814965.3661991094</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.2622779037</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>794287.2622779037</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="15">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="K2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="L2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.276116314</v>
+        <v>679693.2761163128</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389945792</v>
+        <v>373.9475389956762</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059435</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491478</v>
+        <v>68959.93717491459</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395577392</v>
+        <v>38.57632395593133</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.015607761</v>
+        <v>246846.0156077612</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732025</v>
+        <v>8117.312426731872</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732</v>
+        <v>8117.312426731893</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731939</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731977</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731993</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="K4" t="n">
-        <v>8117.312426731936</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.31242673198</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.31242673199</v>
-      </c>
       <c r="O4" t="n">
-        <v>8117.312426731979</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360381</v>
+        <v>63030.89693360376</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353262.8170128587</v>
+        <v>-353262.8170128582</v>
       </c>
       <c r="C6" t="n">
-        <v>326131.7535033275</v>
+        <v>326131.7535033266</v>
       </c>
       <c r="D6" t="n">
-        <v>17923.2351371682</v>
+        <v>17923.23513716835</v>
       </c>
       <c r="E6" t="n">
-        <v>8813.330884569994</v>
+        <v>8778.59295913385</v>
       </c>
       <c r="F6" t="n">
-        <v>516298.7725091156</v>
+        <v>516264.0345836806</v>
       </c>
       <c r="G6" t="n">
-        <v>516298.7725091157</v>
+        <v>516264.0345836803</v>
       </c>
       <c r="H6" t="n">
-        <v>516298.7725091159</v>
+        <v>516264.03458368</v>
       </c>
       <c r="I6" t="n">
-        <v>516298.7725091156</v>
+        <v>516264.03458368</v>
       </c>
       <c r="J6" t="n">
-        <v>447338.8353342011</v>
+        <v>447304.0974087656</v>
       </c>
       <c r="K6" t="n">
-        <v>516260.1961851597</v>
+        <v>516225.458259724</v>
       </c>
       <c r="L6" t="n">
-        <v>420916.1263715462</v>
+        <v>420881.3884461105</v>
       </c>
       <c r="M6" t="n">
-        <v>383691.4787801891</v>
+        <v>383656.7408547534</v>
       </c>
       <c r="N6" t="n">
-        <v>516298.7725091157</v>
+        <v>516264.03458368</v>
       </c>
       <c r="O6" t="n">
-        <v>516298.7725091158</v>
+        <v>516264.03458368</v>
       </c>
       <c r="P6" t="n">
-        <v>516298.7725091158</v>
+        <v>516264.0345836801</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.697532472693</v>
+        <v>613.6975324726918</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989984</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>-6.436047097567693e-14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.697532472693</v>
+        <v>613.6975324726918</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967854086</v>
+        <v>0.3574812967864318</v>
       </c>
       <c r="D3" t="n">
-        <v>320.009878348061</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989984</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.149887802507692</v>
+        <v>0.1498878025082035</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989984</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.149887802507692</v>
+        <v>0.1498878025082035</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989984</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.149887802507692</v>
+        <v>0.1498878025082035</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.1698494644821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.7088995720091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.2475347899676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>387.44479037292</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396427</v>
+        <v>50.64435824064478</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587335</v>
+        <v>115.3620237587337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602293</v>
+        <v>152.8004413602294</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554913</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482828471418</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.18826627113697</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6739464570551</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928071</v>
+        <v>13.55291145354104</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225809</v>
+        <v>43.94827785225818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017449</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>40.21973596064853</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545380905306</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
         <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597227</v>
+        <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404765</v>
+        <v>15.1177750340478</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704492</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7303985328714</v>
@@ -27591,16 +27591,16 @@
         <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586656647723</v>
+        <v>22.69467346577431</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>25.93771833837852</v>
       </c>
       <c r="W4" t="n">
-        <v>38.28547387400911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>145.8278809113911</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>115.0273700322153</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>32.36668412915964</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>155.6163669058305</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>111.907260753153</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>123.8150631241876</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>332.9014851504849</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>263.7941306067361</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>72.50961556041246</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28147,10 +28147,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.179602050945138e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-6.023067408807101e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.43893679709444e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28564,10 +28564,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,13 +28612,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-3.973120074592348e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29044,10 +29044,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29721,7 +29721,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684191</v>
+        <v>2.467125758684186</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612448</v>
+        <v>25.26645167612443</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167237</v>
+        <v>95.11386581167218</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611225</v>
+        <v>209.3942148611222</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262244</v>
+        <v>313.8276482262238</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635558</v>
+        <v>389.3309481635551</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745558</v>
+        <v>433.205695874555</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364172</v>
+        <v>440.2154169364164</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735013</v>
+        <v>415.6829351735005</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059853</v>
+        <v>354.7757680059846</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731076</v>
+        <v>266.4218267731071</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389459</v>
+        <v>154.9755884389457</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601606</v>
+        <v>56.21962822601596</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864005</v>
+        <v>10.79984300864003</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947352</v>
+        <v>0.1973700606947349</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752585</v>
+        <v>1.320028654752582</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721576</v>
+        <v>12.74869779721573</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915698</v>
+        <v>45.4483549991569</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773045</v>
+        <v>124.7137598773043</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457277</v>
+        <v>213.1556797457273</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628365</v>
+        <v>286.614116462836</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976176</v>
+        <v>334.465155197617</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235681</v>
+        <v>343.3174526235675</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419451</v>
+        <v>314.0683966419444</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641142</v>
+        <v>252.0675770641138</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592949</v>
+        <v>168.5004998592946</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191929</v>
+        <v>81.95756858191915</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209295</v>
+        <v>24.51895330209291</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550987</v>
+        <v>5.320641814550977</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424904</v>
+        <v>0.08684399044424888</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508135</v>
+        <v>1.106667681508133</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135969</v>
+        <v>9.83928175013595</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753555</v>
+        <v>33.28051536753549</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262512</v>
+        <v>78.24140508262498</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606724</v>
+        <v>128.5746633606721</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023944003</v>
+        <v>164.5313023944</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840433</v>
+        <v>173.475189384043</v>
       </c>
       <c r="N4" t="n">
-        <v>169.350337116604</v>
+        <v>169.3503371166037</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735317</v>
+        <v>156.4224464735314</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707656</v>
+        <v>133.8464257707654</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337664</v>
+        <v>92.66832740337647</v>
       </c>
       <c r="R4" t="n">
-        <v>49.7598032067203</v>
+        <v>49.75980320672021</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410085</v>
+        <v>19.28619950410081</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625666</v>
+        <v>4.728489184625657</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0603636917186256</v>
+        <v>0.06036369171862549</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>268.6704608606955</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>204.3779992811859</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>555.1777416630679</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954396</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443626</v>
+        <v>28.34831033443587</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124388</v>
+        <v>93.73779718124325</v>
       </c>
       <c r="L2" t="n">
-        <v>154.6153622021573</v>
+        <v>153.5645331935679</v>
       </c>
       <c r="M2" t="n">
-        <v>202.859462647283</v>
+        <v>203.9102916558742</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398263</v>
+        <v>210.8023533398255</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518146</v>
+        <v>185.5847237518138</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507158</v>
+        <v>123.5427722507151</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865814</v>
+        <v>44.11613689865763</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>173.1562724867809</v>
+        <v>75.31424077136833</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829623</v>
+        <v>245.9017683983753</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755993</v>
+        <v>192.3311212755987</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402348</v>
+        <v>211.9757405402342</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521975006</v>
+        <v>171.4721521975</v>
       </c>
       <c r="P3" t="n">
-        <v>118.093169649784</v>
+        <v>118.0931696497835</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327336</v>
+        <v>28.51872577327305</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347895</v>
+        <v>106.3051715347893</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547165</v>
+        <v>192.1213276547162</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458839</v>
+        <v>213.0590663458836</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958326</v>
+        <v>213.4825094958323</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875714</v>
+        <v>181.0075743875711</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356591</v>
+        <v>131.1249850356589</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682252</v>
+        <v>6.506284151682081</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250132</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>484.1293732522348</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>421.8844773977062</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>134.6960534463653</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306619</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>77.54037261451917</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>416.6233618831937</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121063</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
